--- a/output/fit_clients/fit_round_52.xlsx
+++ b/output/fit_clients/fit_round_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7102102648.023466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004735948691511122</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.01278519037847927</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.252429298918387</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.428383323527655</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.252429298918387</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5176995647.606865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004069046139133188</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.904151374318576</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9143558416597821</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.904151374318576</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6387077774.210549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002996582455542915</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.583400836279042</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9673382399695112</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.583400836279042</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3498428268.558566</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004530476011764266</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.933640458875739</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.845795395604106</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.933640458875739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5932608235.529572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002218519703184702</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.478191577849868</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8452520400072014</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.478191577849868</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6649603794.014398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009513218837964819</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.898794705307722</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9211235326980876</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.898794705307722</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6281116174.182385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003305477780707918</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.534819529456851</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9565772359403353</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.534819529456851</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4530347224.213958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005181793282118312</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.494278607861053</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9122647420387419</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.494278607861053</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4610620410.47706</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005153219141772838</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.034767940328385</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.953470427489544</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.034767940328385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3278386551.627251</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001215516087425977</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.758012835667313</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7901110666214229</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.758012835667313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5855149668.96207</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001550195467055904</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.99435695969319</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.016684039440331</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.99435695969319</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6001649951.150443</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003266834694025065</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.678078026390259</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.019712329196882</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.678078026390259</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7056875715.23784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002960607413474293</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.394734966548886</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9073851560557253</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.394734966548886</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8107884808.395166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003917012170949946</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.324465719056308</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9770634743509889</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.324465719056308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7929723584.156344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004581789044416548</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.288683883526336</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9150094380389742</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.288683883526336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6226120461.601759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002862718709864662</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.323098088016646</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9475650718063053</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.323098088016646</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7119920399.235015</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001301327853014256</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.690054705540368</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9757197619314162</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.690054705540368</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4603084669.356616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001889730149130597</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.818992722784698</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8991854820176846</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.818992722784698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4498804670.816782</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001344155083986033</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.563421367018103</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8402006071289445</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.563421367018103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5422780133.563477</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004462756840002911</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.875552739239498</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8429895405792286</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.875552739239498</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5027209495.299119</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004986168144971284</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3745880148617908</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.167661497903958</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.6718960034923057</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.167661497903958</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7674683058.755246</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001749688894641089</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.327896265608744</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8279290090781043</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.327896265608744</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7655141745.747666</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003027480751387759</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.326642074905376</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9941710545339955</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.326642074905376</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7552341186.044729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003210036871165293</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.686570226518567</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9511510801261921</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.686570226518567</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4630967846.311286</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001256325750448938</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.541364431098911</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8129843395014661</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.541364431098911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8775801346.058851</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003136787412544707</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971371</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.953863287472387</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9300705200363317</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.953863287472387</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8894912475.114601</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005329405656382125</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.95661492545892</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8937453402613413</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.95661492545892</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7102538687.15448</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001527258335079093</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.509094912384243</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9923876593837411</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.509094912384243</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7513778421.988344</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003588641454717729</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6527347821570686</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.934010651544282</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.046258325361655</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.934010651544282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6183582285.036975</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002891513933944411</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.886177847053504</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9582597876714294</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.886177847053504</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4210112888.153598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009141230762765819</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.506767644882618</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9461561212754305</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.506767644882618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5826593168.656198</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002156450988729701</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.497950218449451</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8532952685707319</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.497950218449451</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5159248173.987556</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005250079342065781</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.550968063918402</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7797652817832107</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.550968063918402</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4689210366.986338</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001645103109791818</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.057785989039033</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9281639688463219</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.057785989039033</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7907301959.272775</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003568220223477446</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.216287174961609</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.022910171911397</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.216287174961609</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6136871460.145092</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005768707615092151</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1687206885790358</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.98623452272642</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.4271657604406538</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.98623452272642</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3587510132.164662</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003373975732248629</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.847990348166316</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9006679135795261</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.847990348166316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5165024169.683555</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002531707012931562</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.258361793717629</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.852594363599811</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.258361793717629</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6897326806.135466</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003562691978407979</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.25417462545642</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9865525677226122</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.25417462545642</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4869998612.24734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001574057201293079</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.24066880068541</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9240156283585508</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.24066880068541</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5832150789.805164</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003522054177089529</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.827594767007651</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9725090718209707</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.827594767007651</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4479542211.405145</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003634088049272499</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9780318640132118</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.339328390278575</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.354661340332507</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.339328390278575</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6250578952.009501</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001455105828709636</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.82987970663954</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9260801947246274</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.82987970663954</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4955808998.269476</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001435081308840005</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.212621978307077</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9455240553808963</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.212621978307077</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9002888348.939381</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004349690379922647</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.954934371402405</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8213167233841654</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.954934371402405</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9206546195.895105</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003304619719269257</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7784775264707181</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.136838530697966</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.168326016514901</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.136838530697966</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7662326028.262585</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002271209324505024</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.95011580235279</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.965505282912121</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.95011580235279</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5715821579.587251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.0039828876974897</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.945002891447409</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8723055817996569</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.945002891447409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8026764724.974516</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003592308319388943</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.515348016043612</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.048627697812832</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.515348016043612</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3647897522.515663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005023754427329078</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>13</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.212893710441444</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.777493739015122</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.4747326083267912</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.777493739015122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5525895361.878631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002109686939477337</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.996492603105946</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.852594363599811</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.996492603105946</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5988848918.217044</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003427203986221749</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.234731834844366</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9329348804719947</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.234731834844366</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5090251168.084592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004010080164996183</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.732904935441702</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8445706157606362</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.732904935441702</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7069963622.405758</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003786088068619967</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.608909520390127</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8763576133012317</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.608909520390127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4103128409.1438</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002200520900231781</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.439577597577684</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.93103419487428</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.439577597577684</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8694627694.018129</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004268375843500445</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7436324984347504</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.770375813972697</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.030720920627325</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.770375813972697</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4974264727.235342</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001996747960554271</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6611829841622444</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.469713885865019</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9582968940316695</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.469713885865019</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7827646578.112988</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003746431635297516</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.026191622517789</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8952367802537954</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.026191622517789</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5396922287.28758</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004255125400489341</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7345326731089092</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.807885657492024</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.045360184493545</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.807885657492024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6919227984.698398</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005858016471586079</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2925939880579967</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.207134386553828</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.6060208796978436</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.207134386553828</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5176416111.236423</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003150186641486628</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.511085783185938</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8666967348538492</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.511085783185938</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5847547611.396601</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005678638849361372</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.671935041904802</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9011533444688935</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.671935041904802</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3774459728.461143</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004257569857019582</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.861549118783604</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9272211352600874</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.861549118783604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7532000279.457718</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005627021428564847</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.007273778465801089</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.51445489307689</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.4181490979095295</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.51445489307689</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5255693493.959232</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002823371841788384</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.8046412033541048</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.255979265693779</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.199862661726536</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.255979265693779</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5265540066.949484</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005628940154362018</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.714310846396319</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8996962660587996</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.714310846396319</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7927815803.006109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002381401055000006</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.796567772462017</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7390540809335473</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.796567772462017</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5685745868.327322</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001277661341929515</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.699106491190758</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9874611226092019</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.699106491190758</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6653199341.041651</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002617732008811358</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6775833845450435</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.718783808590517</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.079468928192372</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.718783808590517</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4386867374.046479</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003773949702956115</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.579337287025093</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8227712277155559</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.579337287025093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7981650473.965829</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001961955655079322</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.809792748383309</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.036115962177276</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.809792748383309</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>4988543560.441944</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001421991837821449</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.385248093110132</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9638124602791657</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.385248093110132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5683738366.332022</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00365913607308031</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.155835403693704</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8862754178190038</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.155835403693704</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5266040488.515636</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003040260524818726</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.792832561525848</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8442166142316704</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.792832561525848</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4775842609.864207</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002071902433298572</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.79894976619138</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9091587505926092</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.79894976619138</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6535601968.969522</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005747371684949884</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.941701380513614</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.002328224180794</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.941701380513614</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6863099296.165333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005092186994750424</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.8272278693431694</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.654484454710062</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.202577677659041</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.654484454710062</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7923286638.188116</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002624300065774601</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.825246081076681</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9772277317688446</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.825246081076681</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7040900801.610299</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00339174640055978</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.006946594182505</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9557841466403205</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.006946594182505</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4766658235.42286</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003239159861225279</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.828266036419499</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9856655870469095</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.828266036419499</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5742863458.888433</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003687211480192275</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.142974573822284</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.909006494665937</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.142974573822284</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7744310786.697712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002319149735391587</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.322709095109202</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7895293898955706</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.322709095109202</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6524308690.353173</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003416510394571791</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>14</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.591077215465933</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.5188745216627708</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.591077215465933</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5485716295.392531</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003057995608885686</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.558422533421552</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8927414146628995</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.558422533421552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8856856165.127291</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001881497574609661</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.0008038413490593721</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.076512380051841</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-0.478420039628042</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.076512380051841</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3269567081.954343</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001657611062870502</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.520353870256757</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9605619706921388</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.520353870256757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8649450179.014383</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003633886751944852</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.863204904821628</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8363044151122088</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.863204904821628</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7752996031.432606</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004896795636636688</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.169390569539196</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.944745069501104</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.169390569539196</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6403732051.998299</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002485921755084369</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.993311043038708</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9425511094413045</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.993311043038708</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7282961655.416011</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003815891121275745</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.769365614347715</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8368535802785002</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.769365614347715</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4288353272.863486</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003342026303021768</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4768754969965537</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.137469843076445</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.00049385232026</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.137469843076445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5056634914.253137</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001684217396383253</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.830164023980142</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9128956379001093</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.830164023980142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5265195420.044282</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001031936267088451</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.954840470792838</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.032846385264335</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.954840470792838</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4943526488.21745</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002446693342065541</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.337874647318228</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9299216879965714</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.337874647318228</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8593269070.061205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002498938926144327</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.586112851149646</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.902785875034636</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.586112851149646</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6151985244.407291</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005627465144142168</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.20499061938787</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8905995664966149</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.20499061938787</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8857768698.354856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004200787212002789</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7388824939070076</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.220561249421636</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.098386633447996</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.220561249421636</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2784740025.971098</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005917039116258441</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.861514921010972</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8980335210071891</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.861514921010972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4617586797.760164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003515764605773552</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5071730994313195</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.335676262023634</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8435343535474707</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.335676262023634</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7046818673.98381</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001598245600067218</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.994412099797512</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.316774742363722</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.994412099797512</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_52.xlsx
+++ b/output/fit_clients/fit_round_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7102102648.023466</v>
+        <v>1547136863.368783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004735948691511122</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.09163344546933165</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03203405354307161</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>773568366.2663555</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5176995647.606865</v>
+        <v>2569854462.822887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004069046139133188</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1247759517765481</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05027989958794255</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1284927359.587768</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6387077774.210549</v>
+        <v>3403251679.624781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002996582455542915</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1379159981429687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0297414527897707</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1701625811.574465</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3498428268.558566</v>
+        <v>2838164310.097322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004530476011764266</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1041239032372626</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04134889032957749</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1419082235.465849</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5932608235.529572</v>
+        <v>2830813580.867832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002218519703184702</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
+        <v>0.1343185673424019</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0351255762359955</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1415406729.986449</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6649603794.014398</v>
+        <v>2975608791.704123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009513218837964819</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.078034775953035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03580933281490009</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1487804362.987998</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6281116174.182385</v>
+        <v>3988392845.439393</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003305477780707918</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1678182118320012</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02458243356413837</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1994196581.090181</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4530347224.213958</v>
+        <v>2197696994.482749</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005181793282118312</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16</v>
+        <v>0.1427112978859506</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03227658806644866</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1098848496.278234</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4610620410.47706</v>
+        <v>4401074138.191223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005153219141772838</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.209189337490953</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04219288363596958</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2200537121.912267</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3278386551.627251</v>
+        <v>3730422366.441017</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001215516087425977</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.178381202089078</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04806600712762955</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1865211177.016191</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5855149668.96207</v>
+        <v>2182262067.411285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001550195467055904</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
+        <v>0.1497655762091244</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04058128581149572</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1091130976.705465</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6001649951.150443</v>
+        <v>5045062212.424033</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003266834694025065</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.0776166995944513</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02318232235143243</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>10</v>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2522531107.924051</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7056875715.23784</v>
+        <v>2522381905.811625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002960607413474293</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12</v>
+        <v>0.1757773171804986</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04261284232377823</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1261191021.80721</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8107884808.395166</v>
+        <v>1332318789.435298</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003917012170949946</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15</v>
+        <v>0.1068425519996053</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03847855146931531</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>666159442.0683198</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7929723584.156344</v>
+        <v>2547918616.964764</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004581789044416548</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
+        <v>0.1105627921409668</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04646398926127717</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1273959334.897562</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6226120461.601759</v>
+        <v>4902614452.133513</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002862718709864662</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1680299049479999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03269735967570785</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2451307215.951674</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7119920399.235015</v>
+        <v>3537993805.348625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001301327853014256</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1286644015123949</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02488171974694098</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1768996893.884896</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4603084669.356616</v>
+        <v>1033877629.064845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001889730149130597</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1162221800709548</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01980086499969907</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>516938851.8646407</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4498804670.816782</v>
+        <v>1903727650.780285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001344155083986033</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1516925605082237</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02279230917143552</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>951863861.8659426</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5422780133.563477</v>
+        <v>2319263780.413667</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004462756840002911</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
+        <v>0.1017972351495881</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03847409516504054</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1159631895.455416</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5027209495.299119</v>
+        <v>3973736814.186942</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004986168144971284</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1415503556496769</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03807523457658957</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1986868410.176101</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7674683058.755246</v>
+        <v>1094426054.788323</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001749688894641089</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1812979206239924</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0356168452026465</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>547213081.5334196</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7655141745.747666</v>
+        <v>2760833971.786422</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003027480751387759</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.0940692743319293</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0359022399039514</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1380417037.100995</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7552341186.044729</v>
+        <v>1432912879.548263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003210036871165293</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.1001320838471486</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02368502797699136</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>716456404.037029</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4630967846.311286</v>
+        <v>952946250.0807451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001256325750448938</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09065524145008484</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03630420195692326</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>476473085.4499009</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8775801346.058851</v>
+        <v>3191629826.833706</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003136787412544707</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1570083596982977</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01654122182097262</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1595814963.602725</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8894912475.114601</v>
+        <v>3020170854.448403</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005329405656382125</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>13</v>
+        <v>0.1166960716729613</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03647910926910013</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1510085440.074545</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7102538687.15448</v>
+        <v>3715274941.511383</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001527258335079093</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.09221835470177242</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04288200528467796</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1857637507.246245</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7513778421.988344</v>
+        <v>1532874685.319126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003588641454717729</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>16</v>
+        <v>0.136859170642824</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02498663152124701</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>766437326.7966295</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6183582285.036975</v>
+        <v>1463109753.853277</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002891513933944411</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.1076449522504748</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03291149562694705</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>731554766.3662761</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4210112888.153598</v>
+        <v>1411599982.142452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009141230762765819</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08088715493415005</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02994965858670515</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>705800041.0067356</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5826593168.656198</v>
+        <v>1913940196.822867</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002156450988729701</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.147780587166398</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03917637877370988</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>956970186.4057091</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5159248173.987556</v>
+        <v>1323125401.769215</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005250079342065781</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>16</v>
+        <v>0.09003921724125545</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01820248132449702</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>661562685.6200155</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4689210366.986338</v>
+        <v>1021201577.432453</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001645103109791818</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13</v>
+        <v>0.07662896610502146</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04028415897303126</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>510600802.5219329</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7907301959.272775</v>
+        <v>3009743304.22734</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003568220223477446</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>15</v>
+        <v>0.1219975250112267</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02633664261008869</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1504871633.120813</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6136871460.145092</v>
+        <v>2943423974.513006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005768707615092151</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.0946626530879776</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03705024874684938</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1471712144.196257</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3587510132.164662</v>
+        <v>2181840184.725439</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003373975732248629</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1124583267724114</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02794929104763407</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1090920045.193882</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5165024169.683555</v>
+        <v>1805844967.730676</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002531707012931562</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
+        <v>0.130662709369854</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02910860726438692</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>902922507.7536525</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6897326806.135466</v>
+        <v>1729743371.114759</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003562691978407979</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>14</v>
+        <v>0.1420354189987801</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05730790216870744</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>864871594.1063558</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4869998612.24734</v>
+        <v>2847537252.631385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001574057201293079</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>15</v>
+        <v>0.1100238187768843</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04097729455112948</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1423768617.436984</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5832150789.805164</v>
+        <v>3242445567.930083</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003522054177089529</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.1073230830077435</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04214277271478799</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1621222760.9457</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4479542211.405145</v>
+        <v>2222981508.523479</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003634088049272499</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.1625739206398326</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02438750750194215</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1111490830.626096</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6250578952.009501</v>
+        <v>1863220328.162791</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001455105828709636</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.07364333807100472</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02241062190888425</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>931610243.0029006</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4955808998.269476</v>
+        <v>2494021979.030041</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001435081308840005</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1231601402947742</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04245539966164689</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1247011030.013548</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9002888348.939381</v>
+        <v>4782086396.612307</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004349690379922647</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1725250650423041</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05560300983323786</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2391043212.487488</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9206546195.895105</v>
+        <v>4540919339.959624</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003304619719269257</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
+        <v>0.1279962575846491</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05648152997295292</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2270459699.673911</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7662326028.262585</v>
+        <v>3279999791.125504</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002271209324505024</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
+        <v>0.08810171965282809</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03313863972859358</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1639999971.637627</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5715821579.587251</v>
+        <v>1569316713.778806</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0039828876974897</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1499375557593381</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03033963059067686</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>784658378.0164914</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3546648221.737618</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.11087846244138</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04194899743359799</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>528</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8026764724.974516</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.003592308319388943</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1773324131.670712</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3647897522.515663</v>
+        <v>930965103.7614526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005023754427329078</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1722926013222848</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04001807621089236</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>465482646.8832252</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5525895361.878631</v>
+        <v>4357047404.295466</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002109686939477337</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.0975405063662788</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05701144993264681</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2178523737.494149</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5988848918.217044</v>
+        <v>2683892679.922585</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003427203986221749</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1559859611948297</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02355516908803649</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1341946394.097494</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5090251168.084592</v>
+        <v>3195457559.506703</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004010080164996183</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>13</v>
+        <v>0.1238455735783617</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0506269508794966</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1597728780.556854</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7069963622.405758</v>
+        <v>4179456849.184343</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003786088068619967</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>17</v>
+        <v>0.2189473826490117</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02858399046959778</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2089728407.269649</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4103128409.1438</v>
+        <v>1216256363.858431</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002200520900231781</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
+        <v>0.101166933581081</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03913510843431982</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>608128266.0869677</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>496</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3692201296.378016</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1556753789392547</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02133084268764349</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>475</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8694627694.018129</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.004268375843500445</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1846100710.56356</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4974264727.235342</v>
+        <v>1465471268.352848</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001996747960554271</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.1667813823027026</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02787914147967488</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>732735668.3302499</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7827646578.112988</v>
+        <v>5159204413.050915</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003746431635297516</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.1301473666484019</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03176551292032406</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2579602126.443214</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5396922287.28758</v>
+        <v>2496689464.423885</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004255125400489341</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1494821080233325</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02553316379421624</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1248344749.653494</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6919227984.698398</v>
+        <v>3023371975.253207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005858016471586079</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1269011693682651</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03153597076475574</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1511685965.757301</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5176416111.236423</v>
+        <v>1922182425.763918</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003150186641486628</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1424168282624968</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04310033577245343</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>961091259.1610738</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5847547611.396601</v>
+        <v>4660939946.266274</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005678638849361372</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.07021099708430119</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03493359475198739</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2330470005.89568</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3774459728.461143</v>
+        <v>4090500354.394422</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004257569857019582</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1616945552433451</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03231984083885063</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2045250219.299385</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7532000279.457718</v>
+        <v>4442052056.847171</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005627021428564847</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>13</v>
+        <v>0.1516610516160991</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02449894891114364</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2221026020.464644</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5255693493.959232</v>
+        <v>3712271381.525233</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002823371841788384</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1425027679425146</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0382196546709263</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1856135648.809199</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5265540066.949484</v>
+        <v>2138512100.475651</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005628940154362018</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08102392103685231</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03262551342376999</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1069256141.278175</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7927815803.006109</v>
+        <v>4150710616.023508</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002381401055000006</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>11</v>
+        <v>0.1183491126844825</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05159010870065769</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2075355312.809954</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5685745868.327322</v>
+        <v>2442043693.145852</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001277661341929515</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>11</v>
+        <v>0.1253924960747886</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04123932378779234</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1221021908.54335</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6653199341.041651</v>
+        <v>2839346942.116465</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002617732008811358</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.06233854054220859</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04577376445718153</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1419673437.440294</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4386867374.046479</v>
+        <v>3918448032.36072</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003773949702956115</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1294739957084745</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03374126237736307</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1959224041.023366</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7981650473.965829</v>
+        <v>1519609162.576234</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001961955655079322</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>11</v>
+        <v>0.104129542697083</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03925086247004393</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>759804604.9859457</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>4988543560.441944</v>
+        <v>3585621384.268887</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001421991837821449</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12</v>
+        <v>0.07764789223087461</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03933105699605024</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1792810634.416225</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5683738366.332022</v>
+        <v>3509450028.354255</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00365913607308031</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11</v>
+        <v>0.1377822132852529</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03157534715514497</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1754725035.404863</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5266040488.515636</v>
+        <v>1607996200.582201</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003040260524818726</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1104009165685036</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03102724144238565</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>803998101.0563245</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4775842609.864207</v>
+        <v>4419797105.589989</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002071902433298572</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
+        <v>0.1218175620531659</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02625965378090483</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2209898555.004748</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6535601968.969522</v>
+        <v>1542105605.443399</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005747371684949884</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>19</v>
+        <v>0.1454354041077425</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03147055275080692</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>771052796.4858336</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6863099296.165333</v>
+        <v>3306278693.91114</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005092186994750424</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.1112923112687881</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03909596068991243</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1653139362.234506</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7923286638.188116</v>
+        <v>1734050170.362273</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002624300065774601</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>11</v>
+        <v>0.1696142410097683</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03771771722876245</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>867025160.1599932</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7040900801.610299</v>
+        <v>4455022856.430463</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00339174640055978</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>16</v>
+        <v>0.09195045005505877</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03089832098298212</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2227511450.187594</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4766658235.42286</v>
+        <v>4956886801.135078</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003239159861225279</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>9</v>
+        <v>0.1007330979877787</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03195690681794362</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2478443399.228472</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5742863458.888433</v>
+        <v>4845623489.96764</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003687211480192275</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.2006675888213153</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02782976430487442</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2422811737.441771</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7744310786.697712</v>
+        <v>2079219632.657023</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002319149735391587</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>15</v>
+        <v>0.1329447411937918</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04542160329343593</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1039609811.392091</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6524308690.353173</v>
+        <v>2177468720.165835</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003416510394571791</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>14</v>
+        <v>0.09600700680568842</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04162220174651634</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1088734338.958791</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5485716295.392531</v>
+        <v>2915143063.636848</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003057995608885686</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1183184467796066</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04382351092810921</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1457571582.472417</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8856856165.127291</v>
+        <v>1708642204.166748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001881497574609661</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1088085751982983</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01954193078765596</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>854321089.0658449</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3269567081.954343</v>
+        <v>1412116283.074552</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001657611062870502</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1649189891785425</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04061023644262043</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>706058251.3845632</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8649450179.014383</v>
+        <v>2522749067.94774</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003633886751944852</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>12</v>
+        <v>0.1092964725094027</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03954591215821473</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1261374517.147787</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7752996031.432606</v>
+        <v>2278930876.925859</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004896795636636688</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>11</v>
+        <v>0.1011301641245049</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03233125055875186</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1139465529.298475</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6403732051.998299</v>
+        <v>1860237156.217755</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002485921755084369</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.09479869068856135</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04872200059558517</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>930118622.620851</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7282961655.416011</v>
+        <v>1363813810.806093</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003815891121275745</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15</v>
+        <v>0.1304173936577614</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04591293144032538</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>681906962.32882</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4288353272.863486</v>
+        <v>2854428770.123417</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003342026303021768</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1037732905335636</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04226983770928596</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1427214395.660433</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5056634914.253137</v>
+        <v>3844908336.463525</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001684217396383253</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+        <v>0.09599819051644404</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04021862194475222</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1922454178.745863</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5265195420.044282</v>
+        <v>2483139745.758206</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001031936267088451</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1423433196098055</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04052563395813036</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1241569934.018673</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4943526488.21745</v>
+        <v>2622580352.137657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002446693342065541</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>13</v>
+        <v>0.1154798902793471</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03947645695279683</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1311290203.140087</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8593269070.061205</v>
+        <v>1913135954.328474</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002498938926144327</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>14</v>
+        <v>0.0930868899094637</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03801091855971715</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>956567973.2823521</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6151985244.407291</v>
+        <v>4804751519.937516</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005627465144142168</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>14</v>
+        <v>0.1630506801327047</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02393261641809827</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2402375880.924957</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8857768698.354856</v>
+        <v>2896931980.214721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004200787212002789</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>20</v>
+        <v>0.09202499876649059</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0275622548091411</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1448465967.682829</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2784740025.971098</v>
+        <v>2354257387.426806</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005917039116258441</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09588183980568919</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02138026347538304</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1177128632.689411</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4617586797.760164</v>
+        <v>3415999465.319598</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003515764605773552</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.135591906782834</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01802348479646192</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1707999756.597766</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7046818673.98381</v>
+        <v>3510361655.988138</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001598245600067218</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>17</v>
+        <v>0.1668754263669027</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05764825539032215</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1755180984.367805</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_52.xlsx
+++ b/output/fit_clients/fit_round_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1547136863.368783</v>
+        <v>2380548453.203231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09163344546933165</v>
+        <v>0.07794738476475012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03203405354307161</v>
+        <v>0.03493679605050087</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>773568366.2663555</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2569854462.822887</v>
+        <v>2330920833.671504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1247759517765481</v>
+        <v>0.1686377629813304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05027989958794255</v>
+        <v>0.0354593549390973</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1284927359.587768</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3403251679.624781</v>
+        <v>3997035925.417646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1379159981429687</v>
+        <v>0.1217108741991671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0297414527897707</v>
+        <v>0.02903768669989435</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1701625811.574465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2838164310.097322</v>
+        <v>3545036515.882009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1041239032372626</v>
+        <v>0.1034897714000305</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04134889032957749</v>
+        <v>0.05043934367978959</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1419082235.465849</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2830813580.867832</v>
+        <v>2040449646.725927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1343185673424019</v>
+        <v>0.1385471941483151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0351255762359955</v>
+        <v>0.0510516509070067</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1415406729.986449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2975608791.704123</v>
+        <v>3035094488.516611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.078034775953035</v>
+        <v>0.07137550944023587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03580933281490009</v>
+        <v>0.03784150038283993</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1487804362.987998</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3988392845.439393</v>
+        <v>2762498043.102814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1678182118320012</v>
+        <v>0.2123309622618808</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02458243356413837</v>
+        <v>0.0307208845122651</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1994196581.090181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2197696994.482749</v>
+        <v>1439519987.374429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1427112978859506</v>
+        <v>0.1312445380368171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03227658806644866</v>
+        <v>0.03311011554364182</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1098848496.278234</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4401074138.191223</v>
+        <v>3701781629.509438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.209189337490953</v>
+        <v>0.151923971679295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04219288363596958</v>
+        <v>0.05354966177771824</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2200537121.912267</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3730422366.441017</v>
+        <v>2984729448.980511</v>
       </c>
       <c r="F11" t="n">
-        <v>0.178381202089078</v>
+        <v>0.1665168668397035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04806600712762955</v>
+        <v>0.03518621656007576</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1865211177.016191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2182262067.411285</v>
+        <v>2079380061.643262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1497655762091244</v>
+        <v>0.1472491546394954</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04058128581149572</v>
+        <v>0.03806740048101859</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1091130976.705465</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5045062212.424033</v>
+        <v>5321417738.19395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0776166995944513</v>
+        <v>0.0702737120541348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02318232235143243</v>
+        <v>0.02357673325525775</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2522531107.924051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2522381905.811625</v>
+        <v>3466497740.646907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757773171804986</v>
+        <v>0.1424210341162667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04261284232377823</v>
+        <v>0.03402109600068989</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1261191021.80721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1332318789.435298</v>
+        <v>1281831539.37348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1068425519996053</v>
+        <v>0.08895247285100186</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03847855146931531</v>
+        <v>0.04678974789865099</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>666159442.0683198</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2547918616.964764</v>
+        <v>2521971979.582547</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1105627921409668</v>
+        <v>0.09290525398169587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04646398926127717</v>
+        <v>0.04992336846550612</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1273959334.897562</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4902614452.133513</v>
+        <v>5289555035.058759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1680299049479999</v>
+        <v>0.1285842938542505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03269735967570785</v>
+        <v>0.04674366784280416</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2451307215.951674</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3537993805.348625</v>
+        <v>2999678281.628458</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1286644015123949</v>
+        <v>0.1807805087044412</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02488171974694098</v>
+        <v>0.0250543886812873</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1768996893.884896</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1033877629.064845</v>
+        <v>1135400830.118072</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1162221800709548</v>
+        <v>0.117253942540518</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01980086499969907</v>
+        <v>0.02127416383343357</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>516938851.8646407</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1903727650.780285</v>
+        <v>2381432572.913858</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1516925605082237</v>
+        <v>0.1620433170785371</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02279230917143552</v>
+        <v>0.02091084326315045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>951863861.8659426</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2319263780.413667</v>
+        <v>2116510802.245843</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1017972351495881</v>
+        <v>0.09522317445317052</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03847409516504054</v>
+        <v>0.03746469767421524</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1159631895.455416</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3973736814.186942</v>
+        <v>2578012460.836895</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1415503556496769</v>
+        <v>0.1433488814194927</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03807523457658957</v>
+        <v>0.04760518832237789</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1986868410.176101</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1094426054.788323</v>
+        <v>1369827814.673672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1812979206239924</v>
+        <v>0.1606445145645427</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0356168452026465</v>
+        <v>0.04027456461035481</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>547213081.5334196</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2760833971.786422</v>
+        <v>2834680768.99142</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0940692743319293</v>
+        <v>0.09096257399277789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0359022399039514</v>
+        <v>0.03516497438372748</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1380417037.100995</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1432912879.548263</v>
+        <v>1355375755.106435</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001320838471486</v>
+        <v>0.1225777204564481</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02368502797699136</v>
+        <v>0.02843013119964171</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>716456404.037029</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952946250.0807451</v>
+        <v>1299571125.760291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09065524145008484</v>
+        <v>0.1002206968901738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03630420195692326</v>
+        <v>0.03091015546025402</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>476473085.4499009</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3191629826.833706</v>
+        <v>4355509028.338915</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570083596982977</v>
+        <v>0.1293865793847376</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01654122182097262</v>
+        <v>0.02448295373314348</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1595814963.602725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3020170854.448403</v>
+        <v>3844862064.847928</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166960716729613</v>
+        <v>0.1455037958285432</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03647910926910013</v>
+        <v>0.04253445619649963</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1510085440.074545</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3715274941.511383</v>
+        <v>4509730142.514193</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09221835470177242</v>
+        <v>0.1019052057095969</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04288200528467796</v>
+        <v>0.04268351759502965</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1857637507.246245</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1532874685.319126</v>
+        <v>1541073358.031716</v>
       </c>
       <c r="F30" t="n">
-        <v>0.136859170642824</v>
+        <v>0.09249481845626062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02498663152124701</v>
+        <v>0.03756989138238975</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>766437326.7966295</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1463109753.853277</v>
+        <v>1476431917.082622</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1076449522504748</v>
+        <v>0.0680194409513724</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03291149562694705</v>
+        <v>0.04165146676269867</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>731554766.3662761</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1411599982.142452</v>
+        <v>1466704410.345893</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08088715493415005</v>
+        <v>0.1123133023811042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02994965858670515</v>
+        <v>0.02680496255091319</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>705800041.0067356</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1913940196.822867</v>
+        <v>2665205407.652082</v>
       </c>
       <c r="F33" t="n">
-        <v>0.147780587166398</v>
+        <v>0.1280175450145622</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03917637877370988</v>
+        <v>0.0456620950798725</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>956970186.4057091</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323125401.769215</v>
+        <v>1088141965.46923</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09003921724125545</v>
+        <v>0.08338468536131652</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01820248132449702</v>
+        <v>0.02326959556007784</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>661562685.6200155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1021201577.432453</v>
+        <v>1018746853.951739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07662896610502146</v>
+        <v>0.1099308161309712</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04028415897303126</v>
+        <v>0.0357916121546458</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>510600802.5219329</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3009743304.22734</v>
+        <v>2809350603.667797</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1219975250112267</v>
+        <v>0.1254840999752382</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02633664261008869</v>
+        <v>0.02585801911844859</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1504871633.120813</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2943423974.513006</v>
+        <v>2766897201.436842</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0946626530879776</v>
+        <v>0.09262173009391803</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03705024874684938</v>
+        <v>0.03680879382811961</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1471712144.196257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2181840184.725439</v>
+        <v>2200972859.914935</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1124583267724114</v>
+        <v>0.08005846289175396</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02794929104763407</v>
+        <v>0.03707239054386816</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1090920045.193882</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1805844967.730676</v>
+        <v>1932222273.666576</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130662709369854</v>
+        <v>0.1745898962486165</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02910860726438692</v>
+        <v>0.02686436278749279</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>902922507.7536525</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1729743371.114759</v>
+        <v>1460000873.409838</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1420354189987801</v>
+        <v>0.107391037518598</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05730790216870744</v>
+        <v>0.0546166258314526</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>864871594.1063558</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2847537252.631385</v>
+        <v>1880349873.889578</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1100238187768843</v>
+        <v>0.1339487490116411</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04097729455112948</v>
+        <v>0.04182243865906567</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1423768617.436984</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3242445567.930083</v>
+        <v>3255669491.39692</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1073230830077435</v>
+        <v>0.1236468234987754</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04214277271478799</v>
+        <v>0.04360332976738781</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1621222760.9457</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2222981508.523479</v>
+        <v>2845251598.10087</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1625739206398326</v>
+        <v>0.1978452081374273</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02438750750194215</v>
+        <v>0.01905365419225714</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1111490830.626096</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1863220328.162791</v>
+        <v>2306326455.57619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07364333807100472</v>
+        <v>0.09526709053958403</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02241062190888425</v>
+        <v>0.02269086741649602</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>931610243.0029006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2494021979.030041</v>
+        <v>2174181458.325463</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1231601402947742</v>
+        <v>0.152897114555161</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04245539966164689</v>
+        <v>0.04433729334024435</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1247011030.013548</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4782086396.612307</v>
+        <v>4758758262.138933</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1725250650423041</v>
+        <v>0.1698713714927203</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05560300983323786</v>
+        <v>0.04446462690475091</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2391043212.487488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4540919339.959624</v>
+        <v>4761767876.664976</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1279962575846491</v>
+        <v>0.1901044691251905</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05648152997295292</v>
+        <v>0.05274708283689301</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2270459699.673911</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3279999791.125504</v>
+        <v>2945129757.672236</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08810171965282809</v>
+        <v>0.09908125480432239</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03313863972859358</v>
+        <v>0.03486431260419694</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1639999971.637627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1569316713.778806</v>
+        <v>1573992935.71805</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1499375557593381</v>
+        <v>0.1219781800173199</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03033963059067686</v>
+        <v>0.02769190886578193</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>784658378.0164914</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3546648221.737618</v>
+        <v>3052408213.291362</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11087846244138</v>
+        <v>0.1262395690384757</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04194899743359799</v>
+        <v>0.04313010935216492</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>17</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1773324131.670712</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>930965103.7614526</v>
+        <v>986875470.5097631</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1722926013222848</v>
+        <v>0.163061640245048</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04001807621089236</v>
+        <v>0.04000732568178962</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>465482646.8832252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4357047404.295466</v>
+        <v>4410693363.804174</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0975405063662788</v>
+        <v>0.1381454021570761</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05701144993264681</v>
+        <v>0.05634174434616945</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2178523737.494149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2683892679.922585</v>
+        <v>3807013549.072911</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1559859611948297</v>
+        <v>0.1344770868290285</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02355516908803649</v>
+        <v>0.02196353716536691</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1341946394.097494</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3195457559.506703</v>
+        <v>3545531208.226881</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1238455735783617</v>
+        <v>0.1519542241634482</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0506269508794966</v>
+        <v>0.04779600815404174</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1597728780.556854</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4179456849.184343</v>
+        <v>4333332455.045774</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2189473826490117</v>
+        <v>0.1596816386040776</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02858399046959778</v>
+        <v>0.02120803966067679</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2089728407.269649</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1216256363.858431</v>
+        <v>1812534139.542422</v>
       </c>
       <c r="F56" t="n">
-        <v>0.101166933581081</v>
+        <v>0.1280243821237037</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03913510843431982</v>
+        <v>0.05667492211936763</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>608128266.0869677</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3692201296.378016</v>
+        <v>2906497213.009834</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1556753789392547</v>
+        <v>0.1192538522193546</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02133084268764349</v>
+        <v>0.02653445186149025</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1846100710.56356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1465471268.352848</v>
+        <v>1806893839.233155</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1667813823027026</v>
+        <v>0.134445109586113</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02787914147967488</v>
+        <v>0.02434688921968175</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>732735668.3302499</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5159204413.050915</v>
+        <v>5081147835.376087</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1301473666484019</v>
+        <v>0.1075897572180239</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03176551292032406</v>
+        <v>0.03366188272179366</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2579602126.443214</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2496689464.423885</v>
+        <v>3669533563.098868</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1494821080233325</v>
+        <v>0.2054213006933717</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553316379421624</v>
+        <v>0.02932271972751623</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1248344749.653494</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3023371975.253207</v>
+        <v>2444793355.419602</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1269011693682651</v>
+        <v>0.1243114495509777</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03153597076475574</v>
+        <v>0.02323149091969445</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1511685965.757301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1922182425.763918</v>
+        <v>1719785629.100327</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1424168282624968</v>
+        <v>0.1594568609578126</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04310033577245343</v>
+        <v>0.03005159031182048</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>961091259.1610738</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4660939946.266274</v>
+        <v>3842383256.766791</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07021099708430119</v>
+        <v>0.07982359602579643</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03493359475198739</v>
+        <v>0.03619249713376435</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2330470005.89568</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4090500354.394422</v>
+        <v>4338559093.205584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1616945552433451</v>
+        <v>0.1412932548581978</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03231984083885063</v>
+        <v>0.02689160723703013</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2045250219.299385</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4442052056.847171</v>
+        <v>5709187956.347812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1516610516160991</v>
+        <v>0.1597800678691723</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02449894891114364</v>
+        <v>0.01957170733130469</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2221026020.464644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3712271381.525233</v>
+        <v>5247536692.029822</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1425027679425146</v>
+        <v>0.1006549985178986</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0382196546709263</v>
+        <v>0.03829670126822678</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1856135648.809199</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138512100.475651</v>
+        <v>3474308783.475949</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08102392103685231</v>
+        <v>0.1031291334728166</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03262551342376999</v>
+        <v>0.03109710324064512</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1069256141.278175</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4150710616.023508</v>
+        <v>3702181569.082068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1183491126844825</v>
+        <v>0.1415919469899035</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05159010870065769</v>
+        <v>0.03259120271771337</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2075355312.809954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2442043693.145852</v>
+        <v>1691635026.086491</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1253924960747886</v>
+        <v>0.120317014456852</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04123932378779234</v>
+        <v>0.05584675737173581</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1221021908.54335</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2839346942.116465</v>
+        <v>2820871247.98203</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06233854054220859</v>
+        <v>0.09270713645567361</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04577376445718153</v>
+        <v>0.04590443666450118</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1419673437.440294</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3918448032.36072</v>
+        <v>4908265256.792385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1294739957084745</v>
+        <v>0.1242173328141523</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03374126237736307</v>
+        <v>0.0250697899662897</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1959224041.023366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1519609162.576234</v>
+        <v>2213594173.631004</v>
       </c>
       <c r="F72" t="n">
-        <v>0.104129542697083</v>
+        <v>0.07381519935423086</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03925086247004393</v>
+        <v>0.03792199508668469</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>759804604.9859457</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3585621384.268887</v>
+        <v>2653540247.233889</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07764789223087461</v>
+        <v>0.1057357923956823</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03933105699605024</v>
+        <v>0.04578319379495379</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>20</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1792810634.416225</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3509450028.354255</v>
+        <v>3043888923.903883</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1377822132852529</v>
+        <v>0.1841472849629276</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03157534715514497</v>
+        <v>0.02750619252697168</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1754725035.404863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1607996200.582201</v>
+        <v>1878983239.18805</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1104009165685036</v>
+        <v>0.1548064491125747</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03102724144238565</v>
+        <v>0.03206171049984501</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>803998101.0563245</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4419797105.589989</v>
+        <v>4453480070.598705</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1218175620531659</v>
+        <v>0.0964339924676752</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02625965378090483</v>
+        <v>0.02400903940628023</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2209898555.004748</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1542105605.443399</v>
+        <v>2041107366.0732</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1454354041077425</v>
+        <v>0.1512904025788217</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03147055275080692</v>
+        <v>0.01947568621353053</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>771052796.4858336</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3306278693.91114</v>
+        <v>4166642047.299773</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1112923112687881</v>
+        <v>0.09739396139029087</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03909596068991243</v>
+        <v>0.05701399781697992</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1653139362.234506</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1734050170.362273</v>
+        <v>1310100381.512926</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696142410097683</v>
+        <v>0.1420945474312251</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03771771722876245</v>
+        <v>0.02947923835964224</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>867025160.1599932</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4455022856.430463</v>
+        <v>4984716566.202003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09195045005505877</v>
+        <v>0.1109062675121816</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03089832098298212</v>
+        <v>0.02857720150783957</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2227511450.187594</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4956886801.135078</v>
+        <v>3533210407.336533</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1007330979877787</v>
+        <v>0.1209023140308032</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03195690681794362</v>
+        <v>0.03262622613359299</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2478443399.228472</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4845623489.96764</v>
+        <v>4438397312.865768</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2006675888213153</v>
+        <v>0.1836992620160768</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02782976430487442</v>
+        <v>0.02744131757513989</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2422811737.441771</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2079219632.657023</v>
+        <v>1648562226.77455</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1329447411937918</v>
+        <v>0.1396221793955541</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04542160329343593</v>
+        <v>0.02739826967864851</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1039609811.392091</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2177468720.165835</v>
+        <v>2300570396.710404</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09600700680568842</v>
+        <v>0.1188505406975174</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04162220174651634</v>
+        <v>0.03445171973279466</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1088734338.958791</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2915143063.636848</v>
+        <v>2952423329.653108</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1183184467796066</v>
+        <v>0.1612432333415819</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04382351092810921</v>
+        <v>0.05003411010167514</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>19</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1457571582.472417</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1708642204.166748</v>
+        <v>2539566371.349314</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1088085751982983</v>
+        <v>0.1239520217870397</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01954193078765596</v>
+        <v>0.02034018696220272</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>854321089.0658449</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1412116283.074552</v>
+        <v>995947544.7714165</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1649189891785425</v>
+        <v>0.1805305499062616</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04061023644262043</v>
+        <v>0.02809693949470535</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>706058251.3845632</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2522749067.94774</v>
+        <v>2823639116.544966</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1092964725094027</v>
+        <v>0.1300862419496076</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03954591215821473</v>
+        <v>0.03635071050354743</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>20</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1261374517.147787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2278930876.925859</v>
+        <v>2342404142.594217</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1011301641245049</v>
+        <v>0.1364933738877762</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03233125055875186</v>
+        <v>0.02964608117594874</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1139465529.298475</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1860237156.217755</v>
+        <v>1587592728.831122</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09479869068856135</v>
+        <v>0.0924631395995021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04872200059558517</v>
+        <v>0.05230045715660046</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>930118622.620851</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1363813810.806093</v>
+        <v>2086758404.098778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1304173936577614</v>
+        <v>0.119423331920367</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04591293144032538</v>
+        <v>0.05128892661871571</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>681906962.32882</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2854428770.123417</v>
+        <v>1914530670.186889</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1037732905335636</v>
+        <v>0.09460576077927108</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04226983770928596</v>
+        <v>0.0391981339199672</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1427214395.660433</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3844908336.463525</v>
+        <v>4600244699.049404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09599819051644404</v>
+        <v>0.1233531740725346</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04021862194475222</v>
+        <v>0.04029487586360573</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1922454178.745863</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2483139745.758206</v>
+        <v>2361970769.59385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1423433196098055</v>
+        <v>0.1123263318923777</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04052563395813036</v>
+        <v>0.02810596362020777</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1241569934.018673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2622580352.137657</v>
+        <v>3115610637.266878</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1154798902793471</v>
+        <v>0.1032076024414256</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03947645695279683</v>
+        <v>0.04957868751785707</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1311290203.140087</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1913135954.328474</v>
+        <v>2165227330.895781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0930868899094637</v>
+        <v>0.09119909492480142</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03801091855971715</v>
+        <v>0.04263005784624135</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>956567973.2823521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4804751519.937516</v>
+        <v>4221979505.341635</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1630506801327047</v>
+        <v>0.135953473909016</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02393261641809827</v>
+        <v>0.01818310963568772</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2402375880.924957</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2896931980.214721</v>
+        <v>2508606808.361933</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09202499876649059</v>
+        <v>0.09738664072765182</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0275622548091411</v>
+        <v>0.02368223099292204</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>14</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1448465967.682829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2354257387.426806</v>
+        <v>2382045385.573396</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09588183980568919</v>
+        <v>0.1062431414307463</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02138026347538304</v>
+        <v>0.03284697378045591</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1177128632.689411</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3415999465.319598</v>
+        <v>3238200515.059483</v>
       </c>
       <c r="F100" t="n">
-        <v>0.135591906782834</v>
+        <v>0.1183453237397746</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01802348479646192</v>
+        <v>0.02276522902131509</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1707999756.597766</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3510361655.988138</v>
+        <v>3099008103.95668</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1668754263669027</v>
+        <v>0.1689167617942611</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05764825539032215</v>
+        <v>0.05268155107630444</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1755180984.367805</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_52.xlsx
+++ b/output/fit_clients/fit_round_52.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2380548453.203231</v>
+        <v>1707080538.166783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07794738476475012</v>
+        <v>0.09506147711905481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03493679605050087</v>
+        <v>0.03452521192637691</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2330920833.671504</v>
+        <v>2324391480.763448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1686377629813304</v>
+        <v>0.144664304816841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0354593549390973</v>
+        <v>0.04073227868667681</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3997035925.417646</v>
+        <v>4645934044.235393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1217108741991671</v>
+        <v>0.1326709024490399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02903768669989435</v>
+        <v>0.03303886586094226</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3545036515.882009</v>
+        <v>3740390956.771886</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1034897714000305</v>
+        <v>0.08382576764209519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05043934367978959</v>
+        <v>0.04886036879408844</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2040449646.725927</v>
+        <v>2100529082.145233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1385471941483151</v>
+        <v>0.1002408459747891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0510516509070067</v>
+        <v>0.04891814925470813</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3035094488.516611</v>
+        <v>2102920163.456844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07137550944023587</v>
+        <v>0.06560774778180238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03784150038283993</v>
+        <v>0.04482372408715649</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2762498043.102814</v>
+        <v>3131284566.43087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2123309622618808</v>
+        <v>0.2061032308126998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0307208845122651</v>
+        <v>0.02565703526387547</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1439519987.374429</v>
+        <v>1405459488.07895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1312445380368171</v>
+        <v>0.1565776904382964</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03311011554364182</v>
+        <v>0.0314872931913482</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3701781629.509438</v>
+        <v>3722548667.930454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.151923971679295</v>
+        <v>0.2042704448029296</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05354966177771824</v>
+        <v>0.0536248131228304</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2984729448.980511</v>
+        <v>3065580324.310395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1665168668397035</v>
+        <v>0.1840654657692524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03518621656007576</v>
+        <v>0.03401651487989647</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2079380061.643262</v>
+        <v>3122367353.611209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1472491546394954</v>
+        <v>0.1392405839457236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03806740048101859</v>
+        <v>0.04042790262062877</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5321417738.19395</v>
+        <v>4738711546.530785</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0702737120541348</v>
+        <v>0.08650165886113863</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02357673325525775</v>
+        <v>0.0271754045461943</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3466497740.646907</v>
+        <v>3164460927.812151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1424210341162667</v>
+        <v>0.1771595163311307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03402109600068989</v>
+        <v>0.03782130846387892</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1281831539.37348</v>
+        <v>1642953091.971552</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08895247285100186</v>
+        <v>0.1053322683345599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04678974789865099</v>
+        <v>0.0359469754618157</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2521971979.582547</v>
+        <v>2460114664.318471</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09290525398169587</v>
+        <v>0.1132472521409475</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04992336846550612</v>
+        <v>0.03690589562474178</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5289555035.058759</v>
+        <v>3981455082.734553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1285842938542505</v>
+        <v>0.1377994555930187</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04674366784280416</v>
+        <v>0.05186700007314814</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2999678281.628458</v>
+        <v>2982023787.625767</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1807805087044412</v>
+        <v>0.1242780097350015</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0250543886812873</v>
+        <v>0.02100740105734202</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1135400830.118072</v>
+        <v>1322546799.885541</v>
       </c>
       <c r="F19" t="n">
-        <v>0.117253942540518</v>
+        <v>0.1813984515265518</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02127416383343357</v>
+        <v>0.02546964503768574</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2381432572.913858</v>
+        <v>2739872449.009496</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1620433170785371</v>
+        <v>0.1180283583261739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02091084326315045</v>
+        <v>0.02182260733884498</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2116510802.245843</v>
+        <v>2225892512.428998</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09522317445317052</v>
+        <v>0.07495008615738243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03746469767421524</v>
+        <v>0.03709275483577232</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2578012460.836895</v>
+        <v>3841213387.178751</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1433488814194927</v>
+        <v>0.09046485476594103</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04760518832237789</v>
+        <v>0.05411214848635647</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1369827814.673672</v>
+        <v>1386563376.519982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1606445145645427</v>
+        <v>0.1707522568008304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04027456461035481</v>
+        <v>0.03971149349216704</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2834680768.99142</v>
+        <v>3225115706.831297</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09096257399277789</v>
+        <v>0.1350733663430075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03516497438372748</v>
+        <v>0.03658708639838219</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1355375755.106435</v>
+        <v>1040317159.120986</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1225777204564481</v>
+        <v>0.1045327962945161</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02843013119964171</v>
+        <v>0.02747919363946267</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1299571125.760291</v>
+        <v>981146431.7117354</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1002206968901738</v>
+        <v>0.08146552996632714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03091015546025402</v>
+        <v>0.03559657095046352</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4355509028.338915</v>
+        <v>4419935139.482892</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1293865793847376</v>
+        <v>0.1293616972742496</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02448295373314348</v>
+        <v>0.02108204513849872</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3844862064.847928</v>
+        <v>3703059784.839437</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1455037958285432</v>
+        <v>0.1097218709623919</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04253445619649963</v>
+        <v>0.04837456549397022</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4509730142.514193</v>
+        <v>4186389236.496534</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1019052057095969</v>
+        <v>0.1253874719700894</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04268351759502965</v>
+        <v>0.03700149112800283</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1541073358.031716</v>
+        <v>2180264529.147899</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09249481845626062</v>
+        <v>0.1256544737107103</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03756989138238975</v>
+        <v>0.0263441121968485</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1476431917.082622</v>
+        <v>1212670003.451662</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680194409513724</v>
+        <v>0.08426505465829333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04165146676269867</v>
+        <v>0.03188150875673964</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1466704410.345893</v>
+        <v>1823437957.109491</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1123133023811042</v>
+        <v>0.07913257086808674</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02680496255091319</v>
+        <v>0.03321915509942301</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2665205407.652082</v>
+        <v>2824968642.740576</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1280175450145622</v>
+        <v>0.1347883012836399</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0456620950798725</v>
+        <v>0.04531922068383932</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088141965.46923</v>
+        <v>1170816724.103336</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08338468536131652</v>
+        <v>0.1041391445388206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02326959556007784</v>
+        <v>0.01794185801508234</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1018746853.951739</v>
+        <v>968312737.9899535</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1099308161309712</v>
+        <v>0.08906854453597993</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0357916121546458</v>
+        <v>0.03454127981971385</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2809350603.667797</v>
+        <v>2553283326.174551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1254840999752382</v>
+        <v>0.176456716514209</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02585801911844859</v>
+        <v>0.0287088915223547</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2766897201.436842</v>
+        <v>2777348582.610072</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09262173009391803</v>
+        <v>0.09916720996558429</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03680879382811961</v>
+        <v>0.02637101097498809</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2200972859.914935</v>
+        <v>1915744293.609487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08005846289175396</v>
+        <v>0.1108016688400853</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03707239054386816</v>
+        <v>0.03528656649013166</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1932222273.666576</v>
+        <v>1457164525.604646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1745898962486165</v>
+        <v>0.153543801556151</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02686436278749279</v>
+        <v>0.03103440555484457</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1460000873.409838</v>
+        <v>1206962929.304289</v>
       </c>
       <c r="F40" t="n">
-        <v>0.107391037518598</v>
+        <v>0.1206339966327434</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0546166258314526</v>
+        <v>0.04090852878181179</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1880349873.889578</v>
+        <v>2543861478.163288</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1339487490116411</v>
+        <v>0.1315571937079995</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04182243865906567</v>
+        <v>0.04367113434781301</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3255669491.39692</v>
+        <v>3442556247.141215</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1236468234987754</v>
+        <v>0.1259490344176944</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04360332976738781</v>
+        <v>0.03228027580181806</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2845251598.10087</v>
+        <v>2234921659.338931</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1978452081374273</v>
+        <v>0.1755747479244312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01905365419225714</v>
+        <v>0.02465204063305229</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2306326455.57619</v>
+        <v>1426619057.738055</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09526709053958403</v>
+        <v>0.06785767513541188</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02269086741649602</v>
+        <v>0.02382456565468375</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2174181458.325463</v>
+        <v>1892452302.902875</v>
       </c>
       <c r="F45" t="n">
-        <v>0.152897114555161</v>
+        <v>0.1545264821728757</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04433729334024435</v>
+        <v>0.04328479422719496</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4758758262.138933</v>
+        <v>5467290830.146432</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1698713714927203</v>
+        <v>0.1601054260708872</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04446462690475091</v>
+        <v>0.05324483692005274</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4761767876.664976</v>
+        <v>4433570275.965474</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1901044691251905</v>
+        <v>0.1680928590950365</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05274708283689301</v>
+        <v>0.04799557579767465</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2945129757.672236</v>
+        <v>3495586400.496608</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09908125480432239</v>
+        <v>0.1066133221495517</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03486431260419694</v>
+        <v>0.03072605084376102</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1573992935.71805</v>
+        <v>1216820112.581961</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1219781800173199</v>
+        <v>0.1681346194308823</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02769190886578193</v>
+        <v>0.03878981685879267</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3052408213.291362</v>
+        <v>2610703741.500723</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1262395690384757</v>
+        <v>0.1553102733079423</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04313010935216492</v>
+        <v>0.03396456938567571</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>986875470.5097631</v>
+        <v>1042523413.281051</v>
       </c>
       <c r="F51" t="n">
-        <v>0.163061640245048</v>
+        <v>0.1755115202652008</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04000732568178962</v>
+        <v>0.05056634434474695</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4410693363.804174</v>
+        <v>4093700197.754336</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1381454021570761</v>
+        <v>0.1132015421303547</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05634174434616945</v>
+        <v>0.06042581532745664</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807013549.072911</v>
+        <v>2689865810.097851</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1344770868290285</v>
+        <v>0.1555923542370352</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02196353716536691</v>
+        <v>0.03161065832583201</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3545531208.226881</v>
+        <v>4196852525.993977</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1519542241634482</v>
+        <v>0.1419249572437244</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04779600815404174</v>
+        <v>0.04228202889795685</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4333332455.045774</v>
+        <v>3101470652.887465</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1596816386040776</v>
+        <v>0.1575239869466435</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02120803966067679</v>
+        <v>0.03145362345896374</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1812534139.542422</v>
+        <v>1813367568.674215</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1280243821237037</v>
+        <v>0.1329117644099831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05667492211936763</v>
+        <v>0.05037401821164058</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2906497213.009834</v>
+        <v>2855036370.82918</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192538522193546</v>
+        <v>0.1616941565930212</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02653445186149025</v>
+        <v>0.02276631955320354</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1806893839.233155</v>
+        <v>1648129883.852371</v>
       </c>
       <c r="F58" t="n">
-        <v>0.134445109586113</v>
+        <v>0.193553883224279</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02434688921968175</v>
+        <v>0.02837052203333005</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5081147835.376087</v>
+        <v>3840231182.164555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1075897572180239</v>
+        <v>0.1201892299935685</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03366188272179366</v>
+        <v>0.03784683661391097</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3669533563.098868</v>
+        <v>3378261794.305586</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2054213006933717</v>
+        <v>0.1853139540986832</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02932271972751623</v>
+        <v>0.03216524975139135</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2444793355.419602</v>
+        <v>3279554475.789128</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1243114495509777</v>
+        <v>0.1221608906931034</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02323149091969445</v>
+        <v>0.02193748209786609</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1719785629.100327</v>
+        <v>1628388842.752764</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594568609578126</v>
+        <v>0.1517334601025325</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03005159031182048</v>
+        <v>0.04546201905776948</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3842383256.766791</v>
+        <v>4168333035.928842</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07982359602579643</v>
+        <v>0.07675047609948865</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03619249713376435</v>
+        <v>0.03022716614353626</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4338559093.205584</v>
+        <v>3473792661.602977</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1412932548581978</v>
+        <v>0.1725190532348048</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02689160723703013</v>
+        <v>0.02304977939582344</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5709187956.347812</v>
+        <v>5207958584.329667</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1597800678691723</v>
+        <v>0.1144803750433719</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01957170733130469</v>
+        <v>0.03165914237147429</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5247536692.029822</v>
+        <v>5152781024.005355</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006549985178986</v>
+        <v>0.1435451373616468</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03829670126822678</v>
+        <v>0.05066565245345446</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3474308783.475949</v>
+        <v>2319008145.141149</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1031291334728166</v>
+        <v>0.07213795334334053</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03109710324064512</v>
+        <v>0.03328725578651352</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3702181569.082068</v>
+        <v>5423484620.266978</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1415919469899035</v>
+        <v>0.1594407398255113</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03259120271771337</v>
+        <v>0.03966886817769305</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1691635026.086491</v>
+        <v>2252866370.682636</v>
       </c>
       <c r="F69" t="n">
-        <v>0.120317014456852</v>
+        <v>0.1783623664209177</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05584675737173581</v>
+        <v>0.03750766702329203</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2820871247.98203</v>
+        <v>3309921678.155589</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09270713645567361</v>
+        <v>0.08211403374345483</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04590443666450118</v>
+        <v>0.03576310331869927</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4908265256.792385</v>
+        <v>3454401395.373188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1242173328141523</v>
+        <v>0.1569835713419464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0250697899662897</v>
+        <v>0.02918162369188248</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2213594173.631004</v>
+        <v>1861883128.422883</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07381519935423086</v>
+        <v>0.07677541401219475</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03792199508668469</v>
+        <v>0.05010912447247715</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2653540247.233889</v>
+        <v>2832814404.655783</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1057357923956823</v>
+        <v>0.06925016479481363</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04578319379495379</v>
+        <v>0.03753858694568613</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3043888923.903883</v>
+        <v>2455823286.655834</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1841472849629276</v>
+        <v>0.1756363095319332</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02750619252697168</v>
+        <v>0.0294118150235768</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1878983239.18805</v>
+        <v>2196842574.946307</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1548064491125747</v>
+        <v>0.145536845143529</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03206171049984501</v>
+        <v>0.03477774687018575</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4453480070.598705</v>
+        <v>5116995006.789806</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0964339924676752</v>
+        <v>0.1108138568680318</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02400903940628023</v>
+        <v>0.0228328157412521</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2041107366.0732</v>
+        <v>1602791604.857678</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1512904025788217</v>
+        <v>0.1303550557726054</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947568621353053</v>
+        <v>0.02400242029440467</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4166642047.299773</v>
+        <v>4615690823.374228</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09739396139029087</v>
+        <v>0.1131081606930964</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05701399781697992</v>
+        <v>0.03571850350420953</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1310100381.512926</v>
+        <v>1669140720.807002</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1420945474312251</v>
+        <v>0.1554513537754749</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02947923835964224</v>
+        <v>0.02766860397397734</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4984716566.202003</v>
+        <v>3450844851.021904</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1109062675121816</v>
+        <v>0.06910462466421217</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02857720150783957</v>
+        <v>0.02585822655916275</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3533210407.336533</v>
+        <v>3176280683.593722</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1209023140308032</v>
+        <v>0.1038392290021172</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03262622613359299</v>
+        <v>0.03019863442499958</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4438397312.865768</v>
+        <v>5490413662.993105</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1836992620160768</v>
+        <v>0.1908622988193682</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02744131757513989</v>
+        <v>0.02228656028347608</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1648562226.77455</v>
+        <v>1854768968.353652</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1396221793955541</v>
+        <v>0.1452053856448718</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02739826967864851</v>
+        <v>0.02925391732912307</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2300570396.710404</v>
+        <v>2356045318.625229</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1188505406975174</v>
+        <v>0.1198995948988506</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03445171973279466</v>
+        <v>0.04710840031972145</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2952423329.653108</v>
+        <v>2699329553.961774</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1612432333415819</v>
+        <v>0.18329714067179</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05003411010167514</v>
+        <v>0.05312262594000541</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2539566371.349314</v>
+        <v>2262868104.025793</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1239520217870397</v>
+        <v>0.1188279733681238</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02034018696220272</v>
+        <v>0.01701154701720402</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995947544.7714165</v>
+        <v>1060260173.380123</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1805305499062616</v>
+        <v>0.1748103350014538</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02809693949470535</v>
+        <v>0.03321248610447175</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2823639116.544966</v>
+        <v>2917930934.645853</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1300862419496076</v>
+        <v>0.1573783573420499</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03635071050354743</v>
+        <v>0.02902635683843412</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2342404142.594217</v>
+        <v>2839515860.947793</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1364933738877762</v>
+        <v>0.1245383716479279</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02964608117594874</v>
+        <v>0.04182924847701909</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1587592728.831122</v>
+        <v>1698334326.492943</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0924631395995021</v>
+        <v>0.1046580767617537</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05230045715660046</v>
+        <v>0.0382764587750266</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2086758404.098778</v>
+        <v>1957479706.017811</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119423331920367</v>
+        <v>0.1628956714755281</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05128892661871571</v>
+        <v>0.0507393362330127</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1914530670.186889</v>
+        <v>1945801578.065939</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09460576077927108</v>
+        <v>0.07720704822464268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0391981339199672</v>
+        <v>0.04140844591163014</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4600244699.049404</v>
+        <v>4673032945.181273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1233531740725346</v>
+        <v>0.1236765280488636</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04029487586360573</v>
+        <v>0.05429314981833974</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2361970769.59385</v>
+        <v>1703118615.978343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1123263318923777</v>
+        <v>0.1064894090768278</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02810596362020777</v>
+        <v>0.02727816907989602</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3115610637.266878</v>
+        <v>2090924135.938175</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1032076024414256</v>
+        <v>0.1252617895296213</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04957868751785707</v>
+        <v>0.04693954805117129</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2165227330.895781</v>
+        <v>2101383878.886362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09119909492480142</v>
+        <v>0.09084257782766131</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04263005784624135</v>
+        <v>0.03891910302489777</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4221979505.341635</v>
+        <v>3566249779.441366</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135953473909016</v>
+        <v>0.1073614471070242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01818310963568772</v>
+        <v>0.01954782276981415</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2508606808.361933</v>
+        <v>3009375743.73743</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09738664072765182</v>
+        <v>0.09123860749617412</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02368223099292204</v>
+        <v>0.0209746858131272</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2382045385.573396</v>
+        <v>3214913742.827796</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1062431414307463</v>
+        <v>0.1013027108552069</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03284697378045591</v>
+        <v>0.02977766494141107</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3238200515.059483</v>
+        <v>4035266468.096187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1183453237397746</v>
+        <v>0.1229581352266573</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02276522902131509</v>
+        <v>0.01702127352191348</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3099008103.95668</v>
+        <v>3541989817.073427</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1689167617942611</v>
+        <v>0.1852898545646031</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05268155107630444</v>
+        <v>0.04388159063369586</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_52.xlsx
+++ b/output/fit_clients/fit_round_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1707080538.166783</v>
+        <v>2146067310.676565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09506147711905481</v>
+        <v>0.08635243735796883</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03452521192637691</v>
+        <v>0.03460385650117971</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2324391480.763448</v>
+        <v>2552456820.006544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.144664304816841</v>
+        <v>0.1476659256604546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04073227868667681</v>
+        <v>0.04714278092472392</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4645934044.235393</v>
+        <v>4719965718.107409</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1326709024490399</v>
+        <v>0.1134358674556656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03303886586094226</v>
+        <v>0.02539351483872057</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3740390956.771886</v>
+        <v>2563433816.435434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08382576764209519</v>
+        <v>0.08420273257054227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04886036879408844</v>
+        <v>0.03072451179698206</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>85.82019102563426</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2100529082.145233</v>
+        <v>2610269065.649266</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1002408459747891</v>
+        <v>0.1243820293329732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04891814925470813</v>
+        <v>0.04693839827347261</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2102920163.456844</v>
+        <v>2260391789.487701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06560774778180238</v>
+        <v>0.08263519711253296</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04482372408715649</v>
+        <v>0.04051649796023501</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3131284566.43087</v>
+        <v>3343131957.839779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2061032308126998</v>
+        <v>0.2084306581259036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02565703526387547</v>
+        <v>0.02835369025293574</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1405459488.07895</v>
+        <v>2302335960.437446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1565776904382964</v>
+        <v>0.1948360593368886</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0314872931913482</v>
+        <v>0.02577825137686635</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3722548667.930454</v>
+        <v>5239920677.839253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2042704448029296</v>
+        <v>0.177872865280888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0536248131228304</v>
+        <v>0.05311686693739792</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" t="n">
+        <v>52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>228.6083894465074</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3065580324.310395</v>
+        <v>4291961037.245155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1840654657692524</v>
+        <v>0.1161862481236714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03401651487989647</v>
+        <v>0.04305122546644886</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>52</v>
+      </c>
+      <c r="K11" t="n">
+        <v>221.1221050253826</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3122367353.611209</v>
+        <v>2820209907.995252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1392405839457236</v>
+        <v>0.1940076826647925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04042790262062877</v>
+        <v>0.0403070698098961</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4738711546.530785</v>
+        <v>3873221470.044745</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08650165886113863</v>
+        <v>0.08687423853266833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0271754045461943</v>
+        <v>0.0212229962845429</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>51</v>
+      </c>
+      <c r="K13" t="n">
+        <v>184.7673443409233</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3164460927.812151</v>
+        <v>3196598231.619214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1771595163311307</v>
+        <v>0.1461746362023058</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03782130846387892</v>
+        <v>0.0335149035994516</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>51</v>
+      </c>
+      <c r="K14" t="n">
+        <v>124.8201806115292</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1642953091.971552</v>
+        <v>1757497208.384614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053322683345599</v>
+        <v>0.07847905413729027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0359469754618157</v>
+        <v>0.03640061677695985</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2460114664.318471</v>
+        <v>2819297580.355083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1132472521409475</v>
+        <v>0.1124056292818473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03690589562474178</v>
+        <v>0.03504452846389845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3981455082.734553</v>
+        <v>5081243310.187312</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1377994555930187</v>
+        <v>0.1268078000254</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05186700007314814</v>
+        <v>0.03462999146331704</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>51</v>
+      </c>
+      <c r="K17" t="n">
+        <v>188.1769468262457</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2982023787.625767</v>
+        <v>2557338690.249128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242780097350015</v>
+        <v>0.1324445623494971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02100740105734202</v>
+        <v>0.02785687948116126</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1322546799.885541</v>
+        <v>1323402074.016131</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1813984515265518</v>
+        <v>0.1808699609110667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02546964503768574</v>
+        <v>0.01965529600565374</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2739872449.009496</v>
+        <v>2507755831.447069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1180283583261739</v>
+        <v>0.123263880834459</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02182260733884498</v>
+        <v>0.03038290303238024</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2225892512.428998</v>
+        <v>2308293044.919767</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07495008615738243</v>
+        <v>0.08025327514314613</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03709275483577232</v>
+        <v>0.04495399068245095</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3841213387.178751</v>
+        <v>3035746388.468402</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09046485476594103</v>
+        <v>0.1398077922809179</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05411214848635647</v>
+        <v>0.03813326007382213</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1386563376.519982</v>
+        <v>1298248335.637508</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1707522568008304</v>
+        <v>0.1586754375121596</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03971149349216704</v>
+        <v>0.0379823317101228</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3225115706.831297</v>
+        <v>3401010968.591037</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1350733663430075</v>
+        <v>0.09245024331192646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03658708639838219</v>
+        <v>0.03017652275012925</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>51</v>
+      </c>
+      <c r="K24" t="n">
+        <v>131.258711344003</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1040317159.120986</v>
+        <v>1179821845.324372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1045327962945161</v>
+        <v>0.07412905762368181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02747919363946267</v>
+        <v>0.02430879499608321</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>981146431.7117354</v>
+        <v>1276391376.038748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08146552996632714</v>
+        <v>0.09736333711541156</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03559657095046352</v>
+        <v>0.03806388287991977</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4419935139.482892</v>
+        <v>2998664101.520224</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1293616972742496</v>
+        <v>0.1404031332061655</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02108204513849872</v>
+        <v>0.01735739106099936</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>51</v>
+      </c>
+      <c r="K27" t="n">
+        <v>90.07815946636667</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1427,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3703059784.839437</v>
+        <v>3433716722.904367</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1097218709623919</v>
+        <v>0.1086033008547695</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04837456549397022</v>
+        <v>0.04831052446096101</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="n">
+        <v>144.6366949267272</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1458,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4186389236.496534</v>
+        <v>5473558977.91032</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253874719700894</v>
+        <v>0.1351442938688886</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03700149112800283</v>
+        <v>0.0331766533264086</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47</v>
+      </c>
+      <c r="J29" t="n">
+        <v>52</v>
+      </c>
+      <c r="K29" t="n">
+        <v>235.0534999968366</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1495,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2180264529.147899</v>
+        <v>1741511794.91564</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1256544737107103</v>
+        <v>0.09129891802101982</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0263441121968485</v>
+        <v>0.0273979954583623</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1530,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1212670003.451662</v>
+        <v>1424584735.744885</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08426505465829333</v>
+        <v>0.09401885268546965</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03188150875673964</v>
+        <v>0.05068561283411669</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1565,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1823437957.109491</v>
+        <v>1722810395.414014</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07913257086808674</v>
+        <v>0.1140432252303884</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03321915509942301</v>
+        <v>0.0336115136410584</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1600,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2824968642.740576</v>
+        <v>2291548176.297608</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1347883012836399</v>
+        <v>0.1610164811887901</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04531922068383932</v>
+        <v>0.0507710112949261</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1641,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1170816724.103336</v>
+        <v>1230212921.700671</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1041391445388206</v>
+        <v>0.09546427328849746</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01794185801508234</v>
+        <v>0.02702780487736015</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1676,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>968312737.9899535</v>
+        <v>954181976.7548057</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08906854453597993</v>
+        <v>0.07439551943019682</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03454127981971385</v>
+        <v>0.04124709582472021</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1705,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2553283326.174551</v>
+        <v>2229798220.524792</v>
       </c>
       <c r="F36" t="n">
-        <v>0.176456716514209</v>
+        <v>0.1557123186825359</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0287088915223547</v>
+        <v>0.02032939569287572</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1740,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777348582.610072</v>
+        <v>2556970739.950418</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09916720996558429</v>
+        <v>0.06762131741194592</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02637101097498809</v>
+        <v>0.02719495392102907</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1775,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1915744293.609487</v>
+        <v>1518219360.709626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1108016688400853</v>
+        <v>0.07951064526252431</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03528656649013166</v>
+        <v>0.03363281470578531</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1810,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1457164525.604646</v>
+        <v>2032964397.42865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.153543801556151</v>
+        <v>0.1422279401881043</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03103440555484457</v>
+        <v>0.03069754899809913</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1845,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1206962929.304289</v>
+        <v>1470101048.658182</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1206339966327434</v>
+        <v>0.1560848620677549</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04090852878181179</v>
+        <v>0.05719250488425314</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1886,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2543861478.163288</v>
+        <v>2078475220.530826</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1315571937079995</v>
+        <v>0.1641848119879603</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04367113434781301</v>
+        <v>0.02858256881977105</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1915,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3442556247.141215</v>
+        <v>4170930064.65966</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1259490344176944</v>
+        <v>0.1258560052573337</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03228027580181806</v>
+        <v>0.04130009826283884</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>52</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2234921659.338931</v>
+        <v>1914415720.55715</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1755747479244312</v>
+        <v>0.19486504949441</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02465204063305229</v>
+        <v>0.02440119316788681</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1991,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1426619057.738055</v>
+        <v>2171384799.346199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06785767513541188</v>
+        <v>0.09719142866020662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02382456565468375</v>
+        <v>0.03236347084076218</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1892452302.902875</v>
+        <v>2146199570.681491</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1545264821728757</v>
+        <v>0.1663989003628935</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04328479422719496</v>
+        <v>0.03920572917923916</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5467290830.146432</v>
+        <v>5125976023.906789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1601054260708872</v>
+        <v>0.1313611843511061</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05324483692005274</v>
+        <v>0.05639955638123915</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>52</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4433570275.965474</v>
+        <v>3683154344.375432</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1680928590950365</v>
+        <v>0.1327492583307465</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04799557579767465</v>
+        <v>0.05202544063721155</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>52</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3495586400.496608</v>
+        <v>3549691189.183466</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1066133221495517</v>
+        <v>0.08490806737584841</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03072605084376102</v>
+        <v>0.03375674409683301</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17</v>
+      </c>
+      <c r="J48" t="n">
+        <v>52</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1216820112.581961</v>
+        <v>1811277590.230942</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1681346194308823</v>
+        <v>0.1730927466354546</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03878981685879267</v>
+        <v>0.03405813208993564</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2610703741.500723</v>
+        <v>3226252695.809261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1553102733079423</v>
+        <v>0.1484959464405259</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03396456938567571</v>
+        <v>0.03416565661112286</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1042523413.281051</v>
+        <v>1253436140.31122</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1755115202652008</v>
+        <v>0.1248352253430264</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05056634434474695</v>
+        <v>0.03325415638306995</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4093700197.754336</v>
+        <v>4067787456.858117</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1132015421303547</v>
+        <v>0.08707702903859056</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06042581532745664</v>
+        <v>0.05378572404572098</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40</v>
+      </c>
+      <c r="J52" t="n">
+        <v>52</v>
+      </c>
+      <c r="K52" t="n">
+        <v>216.9318006322922</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2689865810.097851</v>
+        <v>2485017317.253695</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1555923542370352</v>
+        <v>0.1366387462936751</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03161065832583201</v>
+        <v>0.03351404705934349</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4196852525.993977</v>
+        <v>3835009479.264557</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1419249572437244</v>
+        <v>0.1216776805876359</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04228202889795685</v>
+        <v>0.04991669315504335</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>51</v>
+      </c>
+      <c r="K54" t="n">
+        <v>178.0635101612928</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3101470652.887465</v>
+        <v>3271970356.532043</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1575239869466435</v>
+        <v>0.2129084957472021</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03145362345896374</v>
+        <v>0.02522311014055023</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>50</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1813367568.674215</v>
+        <v>1267267462.095323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1329117644099831</v>
+        <v>0.1145004877623451</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05037401821164058</v>
+        <v>0.03772046645249629</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2855036370.82918</v>
+        <v>4160775848.434922</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1616941565930212</v>
+        <v>0.117035096112557</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02276631955320354</v>
+        <v>0.02083958453450963</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>52</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1648129883.852371</v>
+        <v>1638664919.46546</v>
       </c>
       <c r="F58" t="n">
-        <v>0.193553883224279</v>
+        <v>0.127010520719213</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02837052203333005</v>
+        <v>0.03006757909380239</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2520,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3840231182.164555</v>
+        <v>4991183052.701764</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1201892299935685</v>
+        <v>0.1172116578347718</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03784683661391097</v>
+        <v>0.04309415175549144</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>51</v>
+      </c>
+      <c r="K59" t="n">
+        <v>178.9535487704462</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3378261794.305586</v>
+        <v>3474904054.918277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1853139540986832</v>
+        <v>0.1986818920384618</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03216524975139135</v>
+        <v>0.02137135919094243</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3279554475.789128</v>
+        <v>2774026892.886422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1221608906931034</v>
+        <v>0.150718298697536</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02193748209786609</v>
+        <v>0.03195347568688457</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1628388842.752764</v>
+        <v>1618284968.861943</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1517334601025325</v>
+        <v>0.1663736258153101</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04546201905776948</v>
+        <v>0.04432181966062708</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4168333035.928842</v>
+        <v>4061736892.718366</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07675047609948865</v>
+        <v>0.08316606598392816</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03022716614353626</v>
+        <v>0.03727842422269288</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>52</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3473792661.602977</v>
+        <v>4114687684.367512</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1725190532348048</v>
+        <v>0.1430005490542696</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02304977939582344</v>
+        <v>0.0226293054056435</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>51</v>
+      </c>
+      <c r="K64" t="n">
+        <v>191.7451974736805</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5207958584.329667</v>
+        <v>5262686532.63619</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1144803750433719</v>
+        <v>0.1156159151224916</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03165914237147429</v>
+        <v>0.03010728477054114</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>42</v>
+      </c>
+      <c r="J65" t="n">
+        <v>52</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5152781024.005355</v>
+        <v>4606806217.202442</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1435451373616468</v>
+        <v>0.1038933297233035</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05066565245345446</v>
+        <v>0.04512438010826011</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>51</v>
+      </c>
+      <c r="K66" t="n">
+        <v>188.0899477349886</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2319008145.141149</v>
+        <v>2665490858.046947</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07213795334334053</v>
+        <v>0.0914084383957782</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03328725578651352</v>
+        <v>0.03554098821281657</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5423484620.266978</v>
+        <v>5204037190.515417</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1594407398255113</v>
+        <v>0.1023171145181571</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03966886817769305</v>
+        <v>0.03257256924367476</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26</v>
+      </c>
+      <c r="J68" t="n">
+        <v>51</v>
+      </c>
+      <c r="K68" t="n">
+        <v>194.021319594942</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2252866370.682636</v>
+        <v>1842499598.418574</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1783623664209177</v>
+        <v>0.1692121901016823</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03750766702329203</v>
+        <v>0.04265534458803438</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3309921678.155589</v>
+        <v>2835779069.7436</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08211403374345483</v>
+        <v>0.08714533096439883</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03576310331869927</v>
+        <v>0.03227193531193518</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3454401395.373188</v>
+        <v>4012098586.335822</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1569835713419464</v>
+        <v>0.167207648686026</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02918162369188248</v>
+        <v>0.02813373377952604</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>42</v>
+      </c>
+      <c r="J71" t="n">
+        <v>52</v>
+      </c>
+      <c r="K71" t="n">
+        <v>201.3337122465554</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1861883128.422883</v>
+        <v>2096480722.328129</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07677541401219475</v>
+        <v>0.07041881948615125</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05010912447247715</v>
+        <v>0.04120904321693287</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2832814404.655783</v>
+        <v>3147602716.386112</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06925016479481363</v>
+        <v>0.08279982443646203</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03753858694568613</v>
+        <v>0.05147571878731495</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2455823286.655834</v>
+        <v>3376205729.92814</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1756363095319332</v>
+        <v>0.1120388575797827</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0294118150235768</v>
+        <v>0.02375312953003681</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>52</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2196842574.946307</v>
+        <v>1593128856.841422</v>
       </c>
       <c r="F75" t="n">
-        <v>0.145536845143529</v>
+        <v>0.1249304692621746</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03477774687018575</v>
+        <v>0.03358533776921899</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5116995006.789806</v>
+        <v>3949957864.49369</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1108138568680318</v>
+        <v>0.08160196100779854</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0228328157412521</v>
+        <v>0.03351799614448104</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>24</v>
+      </c>
+      <c r="J76" t="n">
+        <v>51</v>
+      </c>
+      <c r="K76" t="n">
+        <v>156.0784491863398</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1602791604.857678</v>
+        <v>2117528535.967724</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1303550557726054</v>
+        <v>0.1323169081922899</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02400242029440467</v>
+        <v>0.02154011422847816</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4615690823.374228</v>
+        <v>3332129785.433797</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1131081606930964</v>
+        <v>0.1322221585156013</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03571850350420953</v>
+        <v>0.04125858464077779</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1669140720.807002</v>
+        <v>1465779945.164613</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1554513537754749</v>
+        <v>0.1591132923447181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02766860397397734</v>
+        <v>0.02654300563126332</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3450844851.021904</v>
+        <v>4236248767.848323</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06910462466421217</v>
+        <v>0.07323090132141064</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02585822655916275</v>
+        <v>0.03214574548797913</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+      <c r="J80" t="n">
+        <v>51</v>
+      </c>
+      <c r="K80" t="n">
+        <v>161.6632124476296</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3304,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3176280683.593722</v>
+        <v>4881112068.879795</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1038392290021172</v>
+        <v>0.133928447038383</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03019863442499958</v>
+        <v>0.01989096636003106</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>23</v>
+      </c>
+      <c r="J81" t="n">
+        <v>51</v>
+      </c>
+      <c r="K81" t="n">
+        <v>164.4309959938323</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3335,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5490413662.993105</v>
+        <v>5607906192.134952</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1908622988193682</v>
+        <v>0.2140979944212756</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02228656028347608</v>
+        <v>0.02739894646799606</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
+      <c r="J82" t="n">
+        <v>52</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1854768968.353652</v>
+        <v>2062892046.663947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1452053856448718</v>
+        <v>0.1188200456922286</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02925391732912307</v>
+        <v>0.03362535798596486</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2356045318.625229</v>
+        <v>1775358334.0587</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1198995948988506</v>
+        <v>0.08826442142986406</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04710840031972145</v>
+        <v>0.04331517875691959</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2699329553.961774</v>
+        <v>3499664809.94679</v>
       </c>
       <c r="F85" t="n">
-        <v>0.18329714067179</v>
+        <v>0.1314174125316101</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05312262594000541</v>
+        <v>0.0382444980936349</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2262868104.025793</v>
+        <v>1811911903.324412</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1188279733681238</v>
+        <v>0.1260401599799657</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01701154701720402</v>
+        <v>0.01681627747112267</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1060260173.380123</v>
+        <v>1496162479.865458</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1748103350014538</v>
+        <v>0.1691461793358505</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03321248610447175</v>
+        <v>0.04278701093218554</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2917930934.645853</v>
+        <v>2563423519.465729</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1573783573420499</v>
+        <v>0.1368192288858017</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02902635683843412</v>
+        <v>0.02496923692001839</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2839515860.947793</v>
+        <v>2686454200.75753</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1245383716479279</v>
+        <v>0.1228512326117442</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04182924847701909</v>
+        <v>0.03121229552599023</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1698334326.492943</v>
+        <v>1333665074.587561</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1046580767617537</v>
+        <v>0.09478950264533476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0382764587750266</v>
+        <v>0.04605223885276788</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1957479706.017811</v>
+        <v>1814152785.579461</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1628956714755281</v>
+        <v>0.1591663824821132</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0507393362330127</v>
+        <v>0.04129864889224363</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1945801578.065939</v>
+        <v>2565202592.254689</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07720704822464268</v>
+        <v>0.06844321511632304</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04140844591163014</v>
+        <v>0.03259726760978095</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4673032945.181273</v>
+        <v>3172258554.412523</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1236765280488636</v>
+        <v>0.119780795846742</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05429314981833974</v>
+        <v>0.04784326664671255</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1703118615.978343</v>
+        <v>2416767406.538743</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1064894090768278</v>
+        <v>0.1490608309300734</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02727816907989602</v>
+        <v>0.0310221341875727</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2090924135.938175</v>
+        <v>2548187248.110452</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1252617895296213</v>
+        <v>0.1078237862759105</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04693954805117129</v>
+        <v>0.04710599132824781</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2101383878.886362</v>
+        <v>1594107756.822582</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09084257782766131</v>
+        <v>0.08993509642445043</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03891910302489777</v>
+        <v>0.04177549766279549</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3566249779.441366</v>
+        <v>4739339801.07061</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1073614471070242</v>
+        <v>0.1736095865697115</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01954782276981415</v>
+        <v>0.02092659169156507</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>52</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3009375743.73743</v>
+        <v>3613595919.017308</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09123860749617412</v>
+        <v>0.1167521062781708</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0209746858131272</v>
+        <v>0.02811039807646121</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>52</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3214913742.827796</v>
+        <v>2598119343.295067</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1013027108552069</v>
+        <v>0.09209338897803407</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02977766494141107</v>
+        <v>0.02704774973719503</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4035266468.096187</v>
+        <v>3617189286.75362</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1229581352266573</v>
+        <v>0.1573410859720107</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01702127352191348</v>
+        <v>0.0179378498285634</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>52</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3541989817.073427</v>
+        <v>3274275782.91149</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1852898545646031</v>
+        <v>0.2190759276606152</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04388159063369586</v>
+        <v>0.04851598403718944</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
